--- a/datasets/Mktg. Analytics_Demo_PRIZM_Housing_Comparison Table.xlsx
+++ b/datasets/Mktg. Analytics_Demo_PRIZM_Housing_Comparison Table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heath\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EISELJA\Desktop\Kaggle-master\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB330A3-E26A-4899-94DE-DFD9FE6EEB65}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="5532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="SimplyAnalytics Export" sheetId="1" r:id="rId1"/>
@@ -1663,7 +1662,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_-"/>
@@ -2004,26 +2003,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B507" sqref="B507"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="127.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2081,7 +2080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2110,7 +2109,7 @@
         <v>103074</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>0.36688100000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>3.2169999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2197,7 +2196,7 @@
         <v>14541</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>0.79966999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2255,7 +2254,7 @@
         <v>0.95463500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>15232</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2313,7 +2312,7 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2342,7 +2341,7 @@
         <v>45551</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>15996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>0.20471500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2429,7 +2428,7 @@
         <v>0.79528499999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>4.2636E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>0.95736399999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>15314</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>0.367726</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>56213</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>1117.5999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2632,7 +2631,7 @@
         <v>0.494062</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2661,7 +2660,7 @@
         <v>0.505938</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>4.0196999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>8.2456999999999989E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>0.76022499999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2777,7 +2776,7 @@
         <v>0.23242099999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>0.61500300000000008</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>6.6080000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2864,7 +2863,7 @@
         <v>167188</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>124726</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>8.4144999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2980,7 +2979,7 @@
         <v>0.76048800000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>0.110052</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -3038,7 +3037,7 @@
         <v>1.2009000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -3067,7 +3066,7 @@
         <v>2.4279999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>1.361E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>1066.5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3154,7 +3153,7 @@
         <v>0.49354700000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -3183,7 +3182,7 @@
         <v>0.50645300000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>3.8143999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3241,7 +3240,7 @@
         <v>8.0704999999999985E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>0.76731800000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>0.227575</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>0.62668199999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>6.4880000000000007E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>129011</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -3415,7 +3414,7 @@
         <v>43162</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>8.4059000000000009E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>0.75714899999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -3531,7 +3530,7 @@
         <v>0.109669</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -3560,7 +3559,7 @@
         <v>1.2560999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>2.3535E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>4.5365000000000003E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>0.20033000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>82.504599999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>16053</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>1086711.8999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -3792,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>0.73987799999999992</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>7.8727999999999992E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>0.13546900000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>1.8320000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>4.4091999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>8.5584000000000007E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4082,7 +4081,7 @@
         <v>5.3199999999999992E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4111,7 +4110,7 @@
         <v>0.13541</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4140,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4169,7 +4168,7 @@
         <v>7.5649999999999997E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>1.1112E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>4.0369000000000002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>3.6172000000000003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -4314,7 +4313,7 @@
         <v>2.1870000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>0.28926099999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v>8.2699999999999994E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -4401,7 +4400,7 @@
         <v>0.16850899999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>3.4280000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -4488,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>1.4189999999999999E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>2.4056000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>1.18E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>1.3062000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>5.4379999999999993E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -4720,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>1.7699999999999999E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>6.2649999999999997E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>2.9492999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -4923,7 +4922,7 @@
         <v>9.9299999999999996E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>2.6360999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -5010,7 +5009,7 @@
         <v>1.8910000000000001E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -5097,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>118</v>
       </c>
@@ -5126,7 +5125,7 @@
         <v>2.9599999999999998E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>119</v>
       </c>
@@ -5155,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>120</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>121</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>1.18E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>2.3227999999999999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -5387,7 +5386,7 @@
         <v>9.3390000000000001E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>1.8263000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -5474,7 +5473,7 @@
         <v>5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>3.0140000000000002E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>1.18E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>135</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -5648,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>137</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>3.2684999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -5735,7 +5734,7 @@
         <v>9.6340000000000002E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -5851,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -5880,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>145</v>
       </c>
@@ -5909,7 +5908,7 @@
         <v>3.901E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>146</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>147</v>
       </c>
@@ -5967,7 +5966,7 @@
         <v>2.5179E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>148</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>4.1492000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>3.2802999999999999E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>0.73160399999999992</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -6083,7 +6082,7 @@
         <v>1.1998E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>3.1621000000000003E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>153</v>
       </c>
@@ -6141,7 +6140,7 @@
         <v>9.6340000000000002E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>154</v>
       </c>
@@ -6170,7 +6169,7 @@
         <v>4.3737999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>155</v>
       </c>
@@ -6199,7 +6198,7 @@
         <v>2.8902000000000001E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>156</v>
       </c>
@@ -6228,7 +6227,7 @@
         <v>3.9069E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>157</v>
       </c>
@@ -6257,7 +6256,7 @@
         <v>3.96E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>158</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>159</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>160</v>
       </c>
@@ -6344,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -6373,7 +6372,7 @@
         <v>8.5584000000000007E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -6402,7 +6401,7 @@
         <v>0.65021600000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>163</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>2.6183999999999999E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>164</v>
       </c>
@@ -6460,7 +6459,7 @@
         <v>5.4850000000000003E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>165</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>5.5440999999999997E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>166</v>
       </c>
@@ -6518,7 +6517,7 @@
         <v>3.5581000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>167</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>4.6219999999999997E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -6576,7 +6575,7 @@
         <v>4.1727999999999987E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>169</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>3.7239999999999999E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>170</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>2.9599999999999998E-4</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>171</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>1.7699999999999999E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>172</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>8.6277000000000006E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>173</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>0.86862300000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>174</v>
       </c>
@@ -6750,7 +6749,7 @@
         <v>4.5101000000000002E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>175</v>
       </c>
@@ -6779,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>176</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>16919</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>177</v>
       </c>
@@ -6837,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>178</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>12518</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>179</v>
       </c>
@@ -6895,7 +6894,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>180</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>181</v>
       </c>
@@ -6953,7 +6952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>182</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>183</v>
       </c>
@@ -7011,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -7040,7 +7039,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>185</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>186</v>
       </c>
@@ -7098,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -7127,7 +7126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>188</v>
       </c>
@@ -7156,7 +7155,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>189</v>
       </c>
@@ -7185,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>190</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>191</v>
       </c>
@@ -7243,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>192</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>193</v>
       </c>
@@ -7301,7 +7300,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>194</v>
       </c>
@@ -7330,7 +7329,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>195</v>
       </c>
@@ -7359,7 +7358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>196</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>4894</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>197</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>198</v>
       </c>
@@ -7446,7 +7445,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>199</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>200</v>
       </c>
@@ -7504,7 +7503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>201</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>202</v>
       </c>
@@ -7562,7 +7561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>203</v>
       </c>
@@ -7591,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>204</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>205</v>
       </c>
@@ -7649,7 +7648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>206</v>
       </c>
@@ -7678,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>207</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>208</v>
       </c>
@@ -7736,7 +7735,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>210</v>
       </c>
@@ -7794,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>211</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>212</v>
       </c>
@@ -7852,7 +7851,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>213</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>214</v>
       </c>
@@ -7910,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>215</v>
       </c>
@@ -7939,7 +7938,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>216</v>
       </c>
@@ -7968,7 +7967,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>217</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>218</v>
       </c>
@@ -8026,7 +8025,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>219</v>
       </c>
@@ -8055,7 +8054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>220</v>
       </c>
@@ -8084,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>221</v>
       </c>
@@ -8113,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>222</v>
       </c>
@@ -8142,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>223</v>
       </c>
@@ -8171,7 +8170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>224</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>225</v>
       </c>
@@ -8229,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>226</v>
       </c>
@@ -8258,7 +8257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>227</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>228</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>229</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>230</v>
       </c>
@@ -8374,7 +8373,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>231</v>
       </c>
@@ -8403,7 +8402,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>232</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>233</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>234</v>
       </c>
@@ -8490,7 +8489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>235</v>
       </c>
@@ -8519,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>236</v>
       </c>
@@ -8548,7 +8547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>237</v>
       </c>
@@ -8577,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>238</v>
       </c>
@@ -8606,7 +8605,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>239</v>
       </c>
@@ -8635,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>240</v>
       </c>
@@ -8664,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>241</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>242</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>243</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>244</v>
       </c>
@@ -8780,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>245</v>
       </c>
@@ -8809,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>246</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>247</v>
       </c>
@@ -8867,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>248</v>
       </c>
@@ -8896,7 +8895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>249</v>
       </c>
@@ -8925,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>250</v>
       </c>
@@ -8954,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>251</v>
       </c>
@@ -8983,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>252</v>
       </c>
@@ -9012,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>253</v>
       </c>
@@ -9041,7 +9040,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>254</v>
       </c>
@@ -9070,7 +9069,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>255</v>
       </c>
@@ -9099,7 +9098,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>256</v>
       </c>
@@ -9128,7 +9127,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>257</v>
       </c>
@@ -9157,7 +9156,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>258</v>
       </c>
@@ -9186,7 +9185,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>259</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>260</v>
       </c>
@@ -9244,7 +9243,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>261</v>
       </c>
@@ -9273,7 +9272,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>262</v>
       </c>
@@ -9302,7 +9301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>263</v>
       </c>
@@ -9331,7 +9330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>264</v>
       </c>
@@ -9360,7 +9359,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>265</v>
       </c>
@@ -9389,7 +9388,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>266</v>
       </c>
@@ -9418,7 +9417,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>267</v>
       </c>
@@ -9447,7 +9446,7 @@
         <v>12378</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>268</v>
       </c>
@@ -9476,7 +9475,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>269</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>270</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>271</v>
       </c>
@@ -9563,7 +9562,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>272</v>
       </c>
@@ -9592,7 +9591,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>273</v>
       </c>
@@ -9621,7 +9620,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>274</v>
       </c>
@@ -9650,7 +9649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>275</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>276</v>
       </c>
@@ -9708,7 +9707,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>277</v>
       </c>
@@ -9737,7 +9736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>278</v>
       </c>
@@ -9766,7 +9765,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>279</v>
       </c>
@@ -9795,7 +9794,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>280</v>
       </c>
@@ -9824,7 +9823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>281</v>
       </c>
@@ -9853,7 +9852,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>282</v>
       </c>
@@ -9882,7 +9881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>283</v>
       </c>
@@ -9911,7 +9910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>284</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>285</v>
       </c>
@@ -9969,7 +9968,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>286</v>
       </c>
@@ -9998,7 +9997,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>287</v>
       </c>
@@ -10027,7 +10026,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>288</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>289</v>
       </c>
@@ -10085,7 +10084,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>290</v>
       </c>
@@ -10114,7 +10113,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>291</v>
       </c>
@@ -10143,7 +10142,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>292</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -10201,7 +10200,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>294</v>
       </c>
@@ -10230,7 +10229,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>295</v>
       </c>
@@ -10259,7 +10258,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>296</v>
       </c>
@@ -10288,7 +10287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>297</v>
       </c>
@@ -10317,7 +10316,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>298</v>
       </c>
@@ -10346,7 +10345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>299</v>
       </c>
@@ -10375,7 +10374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>300</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>301</v>
       </c>
@@ -10433,7 +10432,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>302</v>
       </c>
@@ -10462,7 +10461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>303</v>
       </c>
@@ -10491,7 +10490,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>304</v>
       </c>
@@ -10520,7 +10519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>305</v>
       </c>
@@ -10549,7 +10548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>306</v>
       </c>
@@ -10578,7 +10577,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>307</v>
       </c>
@@ -10607,7 +10606,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>308</v>
       </c>
@@ -10636,7 +10635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>309</v>
       </c>
@@ -10665,7 +10664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>310</v>
       </c>
@@ -10694,7 +10693,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>311</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>312</v>
       </c>
@@ -10752,7 +10751,7 @@
         <v>35.612400000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>313</v>
       </c>
@@ -10781,7 +10780,7 @@
         <v>0.52393900000000004</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>314</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>0.482236</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>315</v>
       </c>
@@ -10839,7 +10838,7 @@
         <v>0.60991700000000004</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>316</v>
       </c>
@@ -10868,7 +10867,7 @@
         <v>0.50307400000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>317</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>0.140651</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>318</v>
       </c>
@@ -10926,7 +10925,7 @@
         <v>0.150671</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>319</v>
       </c>
@@ -10955,7 +10954,7 @@
         <v>0.53518999999999994</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>320</v>
       </c>
@@ -10984,7 +10983,7 @@
         <v>0.25820100000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>321</v>
       </c>
@@ -11013,7 +11012,7 @@
         <v>20.059999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>322</v>
       </c>
@@ -11042,7 +11041,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>328</v>
       </c>
@@ -11071,7 +11070,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>329</v>
       </c>
@@ -11100,7 +11099,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>338</v>
       </c>
@@ -11129,7 +11128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>339</v>
       </c>
@@ -11158,7 +11157,7 @@
         <v>5.3491999999999997</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>340</v>
       </c>
@@ -11187,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>341</v>
       </c>
@@ -11216,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>342</v>
       </c>
@@ -11245,7 +11244,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>343</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v>3.8633000000000002</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>344</v>
       </c>
@@ -11303,7 +11302,7 @@
         <v>3.4859999999999999E-3</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>345</v>
       </c>
@@ -11332,7 +11331,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>346</v>
       </c>
@@ -11361,7 +11360,7 @@
         <v>0.96540000000000004</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>347</v>
       </c>
@@ -11390,7 +11389,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>348</v>
       </c>
@@ -11419,7 +11418,7 @@
         <v>1.5017</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>349</v>
       </c>
@@ -11448,7 +11447,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>350</v>
       </c>
@@ -11477,7 +11476,7 @@
         <v>4.2973999999999997</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>351</v>
       </c>
@@ -11506,7 +11505,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>352</v>
       </c>
@@ -11535,7 +11534,7 @@
         <v>34.768000000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>353</v>
       </c>
@@ -11564,7 +11563,7 @@
         <v>51.86</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>354</v>
       </c>
@@ -11593,7 +11592,7 @@
         <v>58.1188</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>355</v>
       </c>
@@ -11622,7 +11621,7 @@
         <v>86.69</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>356</v>
       </c>
@@ -11651,7 +11650,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>357</v>
       </c>
@@ -11680,7 +11679,7 @@
         <v>24.8444</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>358</v>
       </c>
@@ -11709,7 +11708,7 @@
         <v>74.73</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>359</v>
       </c>
@@ -11738,7 +11737,7 @@
         <v>47.937600000000003</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>360</v>
       </c>
@@ -11767,7 +11766,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>361</v>
       </c>
@@ -11796,7 +11795,7 @@
         <v>11.9315</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>362</v>
       </c>
@@ -11825,7 +11824,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>363</v>
       </c>
@@ -11854,7 +11853,7 @@
         <v>4.9843000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>364</v>
       </c>
@@ -11883,7 +11882,7 @@
         <v>11.09</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>365</v>
       </c>
@@ -11912,7 +11911,7 @@
         <v>7.1139999999999999</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>366</v>
       </c>
@@ -11941,7 +11940,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>367</v>
       </c>
@@ -11970,7 +11969,7 @@
         <v>2.6107999999999998</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>368</v>
       </c>
@@ -11999,7 +11998,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>369</v>
       </c>
@@ -12028,7 +12027,7 @@
         <v>0.2117</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>370</v>
       </c>
@@ -12057,7 +12056,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>371</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>372</v>
       </c>
@@ -12115,7 +12114,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>373</v>
       </c>
@@ -12144,7 +12143,7 @@
         <v>0.30790000000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>374</v>
       </c>
@@ -12173,7 +12172,7 @@
         <v>1715.86</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>375</v>
       </c>
@@ -12202,7 +12201,7 @@
         <v>14916</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>376</v>
       </c>
@@ -12231,7 +12230,7 @@
         <v>95.682900000000004</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>377</v>
       </c>
@@ -12260,7 +12259,7 @@
         <v>119.54</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>378</v>
       </c>
@@ -12289,7 +12288,7 @@
         <v>80.142099999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>379</v>
       </c>
@@ -12318,7 +12317,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>380</v>
       </c>
@@ -12347,7 +12346,7 @@
         <v>19.857900000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>381</v>
       </c>
@@ -12376,7 +12375,7 @@
         <v>155.88999999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>382</v>
       </c>
@@ -12405,7 +12404,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>383</v>
       </c>
@@ -12434,7 +12433,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -12463,7 +12462,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>396</v>
       </c>
@@ -12492,7 +12491,7 @@
         <v>24139.4476</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>397</v>
       </c>
@@ -12521,7 +12520,7 @@
         <v>967.3</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>398</v>
       </c>
@@ -12550,7 +12549,7 @@
         <v>6.6521999999999997</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>399</v>
       </c>
@@ -12573,7 +12572,7 @@
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>400</v>
       </c>
@@ -12596,7 +12595,7 @@
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>401</v>
       </c>
@@ -12619,7 +12618,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>402</v>
       </c>
@@ -12642,7 +12641,7 @@
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>403</v>
       </c>
@@ -12665,7 +12664,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>404</v>
       </c>
@@ -12688,7 +12687,7 @@
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>405</v>
       </c>
@@ -12711,7 +12710,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>406</v>
       </c>
@@ -12734,7 +12733,7 @@
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>407</v>
       </c>
@@ -12757,7 +12756,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>408</v>
       </c>
@@ -12780,7 +12779,7 @@
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>409</v>
       </c>
@@ -12803,7 +12802,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>410</v>
       </c>
@@ -12826,7 +12825,7 @@
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>411</v>
       </c>
@@ -12849,7 +12848,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>412</v>
       </c>
@@ -12872,7 +12871,7 @@
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>413</v>
       </c>
@@ -12895,7 +12894,7 @@
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>414</v>
       </c>
@@ -12918,7 +12917,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>415</v>
       </c>
@@ -12941,7 +12940,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>416</v>
       </c>
@@ -12964,7 +12963,7 @@
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>417</v>
       </c>
@@ -12993,7 +12992,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>418</v>
       </c>
@@ -13022,7 +13021,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>419</v>
       </c>
@@ -13051,7 +13050,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>420</v>
       </c>
@@ -13080,7 +13079,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>421</v>
       </c>
@@ -13109,7 +13108,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>422</v>
       </c>
@@ -13138,7 +13137,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>423</v>
       </c>
@@ -13167,7 +13166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>424</v>
       </c>
@@ -13196,7 +13195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>425</v>
       </c>
@@ -13225,7 +13224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>426</v>
       </c>
@@ -13254,7 +13253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>427</v>
       </c>
@@ -13283,7 +13282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>428</v>
       </c>
@@ -13312,7 +13311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>429</v>
       </c>
@@ -13341,7 +13340,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>430</v>
       </c>
@@ -13370,7 +13369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>431</v>
       </c>
@@ -13399,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>432</v>
       </c>
@@ -13428,7 +13427,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>433</v>
       </c>
@@ -13457,7 +13456,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>434</v>
       </c>
@@ -13486,7 +13485,7 @@
         <v>1450.4</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>435</v>
       </c>
@@ -13515,7 +13514,7 @@
         <v>9.9746000000000006</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>436</v>
       </c>
@@ -13544,7 +13543,7 @@
         <v>3.161</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>437</v>
       </c>
@@ -13573,7 +13572,7 @@
         <v>2.1739000000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>438</v>
       </c>
@@ -13602,7 +13601,7 @@
         <v>6.4239999999999986</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>439</v>
       </c>
@@ -13631,7 +13630,7 @@
         <v>4.4179000000000004</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>440</v>
       </c>
@@ -13660,7 +13659,7 @@
         <v>1.647</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>441</v>
       </c>
@@ -13689,7 +13688,7 @@
         <v>1.1327</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>442</v>
       </c>
@@ -13718,7 +13717,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>443</v>
       </c>
@@ -13747,7 +13746,7 @@
         <v>3.5823</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>444</v>
       </c>
@@ -13776,7 +13775,7 @@
         <v>1.6579999999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>445</v>
       </c>
@@ -13805,7 +13804,7 @@
         <v>1.1402000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>446</v>
       </c>
@@ -13834,7 +13833,7 @@
         <v>9.8060000000000009</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>447</v>
       </c>
@@ -13863,7 +13862,7 @@
         <v>6.7436999999999996</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>448</v>
       </c>
@@ -13892,7 +13891,7 @@
         <v>5.9089999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>449</v>
       </c>
@@ -13921,7 +13920,7 @@
         <v>4.0636999999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>450</v>
       </c>
@@ -13950,7 +13949,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>451</v>
       </c>
@@ -13979,7 +13978,7 @@
         <v>2.9020999999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>452</v>
       </c>
@@ -14008,7 +14007,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>453</v>
       </c>
@@ -14037,7 +14036,7 @@
         <v>0.52200000000000002</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>454</v>
       </c>
@@ -14066,7 +14065,7 @@
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>455</v>
       </c>
@@ -14095,7 +14094,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>456</v>
       </c>
@@ -14124,7 +14123,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>457</v>
       </c>
@@ -14153,7 +14152,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>458</v>
       </c>
@@ -14182,7 +14181,7 @@
         <v>5.6160000000000014</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>459</v>
       </c>
@@ -14211,7 +14210,7 @@
         <v>3.8622000000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>460</v>
       </c>
@@ -14240,7 +14239,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>461</v>
       </c>
@@ -14269,7 +14268,7 @@
         <v>0.10249999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>462</v>
       </c>
@@ -14298,7 +14297,7 @@
         <v>1.1459999999999999</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>463</v>
       </c>
@@ -14327,7 +14326,7 @@
         <v>0.78810000000000002</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>464</v>
       </c>
@@ -14356,7 +14355,7 @@
         <v>27.743832000000001</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>465</v>
       </c>
@@ -14385,7 +14384,7 @@
         <v>41382.699999999997</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>466</v>
       </c>
@@ -14414,7 +14413,7 @@
         <v>7671.7</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>467</v>
       </c>
@@ -14443,7 +14442,7 @@
         <v>1822.6803</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>468</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>4774.4971999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>469</v>
       </c>
@@ -14501,7 +14500,7 @@
         <v>71216.399999999994</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>470</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>4935.1702999999998</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>471</v>
       </c>
@@ -14559,7 +14558,7 @@
         <v>73613</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>472</v>
       </c>
@@ -14588,7 +14587,7 @@
         <v>514.32690000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>473</v>
       </c>
@@ -14617,7 +14616,7 @@
         <v>214151.8</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>474</v>
       </c>
@@ -14646,7 +14645,7 @@
         <v>14357.186900000001</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>475</v>
       </c>
@@ -14675,7 +14674,7 @@
         <v>65500.1</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>476</v>
       </c>
@@ -14704,7 +14703,7 @@
         <v>4391.2644</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>477</v>
       </c>
@@ -14733,7 +14732,7 @@
         <v>23273.1</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>478</v>
       </c>
@@ -14762,7 +14761,7 @@
         <v>1560.2775999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>479</v>
       </c>
@@ -14791,7 +14790,7 @@
         <v>6118</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>480</v>
       </c>
@@ -14820,7 +14819,7 @@
         <v>410.16359999999997</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>481</v>
       </c>
@@ -14849,7 +14848,7 @@
         <v>1399.1</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>482</v>
       </c>
@@ -14878,7 +14877,7 @@
         <v>93.798599999999993</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>483</v>
       </c>
@@ -14907,7 +14906,7 @@
         <v>804.6</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>484</v>
       </c>
@@ -14936,7 +14935,7 @@
         <v>53.942100000000003</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>485</v>
       </c>
@@ -14965,7 +14964,7 @@
         <v>9954</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>486</v>
       </c>
@@ -14994,7 +14993,7 @@
         <v>667.33709999999996</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>487</v>
       </c>
@@ -15023,7 +15022,7 @@
         <v>664.7</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>488</v>
       </c>
@@ -15052,7 +15051,7 @@
         <v>44.562899999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>489</v>
       </c>
@@ -15081,7 +15080,7 @@
         <v>1077.0999999999999</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>490</v>
       </c>
@@ -15110,7 +15109,7 @@
         <v>72.210999999999999</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>491</v>
       </c>
@@ -15139,7 +15138,7 @@
         <v>3698.9</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>492</v>
       </c>
@@ -15168,7 +15167,7 @@
         <v>247.982</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>493</v>
       </c>
@@ -15197,7 +15196,7 @@
         <v>2792.2</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>494</v>
       </c>
@@ -15226,7 +15225,7 @@
         <v>187.19499999999999</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>495</v>
       </c>
@@ -15255,7 +15254,7 @@
         <v>37413.4</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>496</v>
       </c>
@@ -15284,7 +15283,7 @@
         <v>2508.2730000000001</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>497</v>
       </c>
@@ -15313,7 +15312,7 @@
         <v>72.082300000000004</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>498</v>
       </c>
@@ -15342,7 +15341,7 @@
         <v>0.15872700000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>499</v>
       </c>
@@ -15371,7 +15370,7 @@
         <v>4.0461999999999998E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>500</v>
       </c>
@@ -15400,7 +15399,7 @@
         <v>7.7893000000000004E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>501</v>
       </c>
@@ -15429,7 +15428,7 @@
         <v>2.9232000000000001E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>502</v>
       </c>
@@ -15458,7 +15457,7 @@
         <v>9.5359999999999993E-3</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>503</v>
       </c>
@@ -15487,7 +15486,7 @@
         <v>4.1218999999999999E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>504</v>
       </c>
@@ -15516,7 +15515,7 @@
         <v>3.5599999999999998E-4</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>505</v>
       </c>
@@ -15545,7 +15544,7 @@
         <v>0.77215800000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>506</v>
       </c>
@@ -15574,7 +15573,7 @@
         <v>2.9142999999999999E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>507</v>
       </c>
@@ -15603,7 +15602,7 @@
         <v>3.5649E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>508</v>
       </c>
@@ -15632,7 +15631,7 @@
         <v>7.6956999999999998E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>509</v>
       </c>
@@ -15661,7 +15660,7 @@
         <v>0.39133699999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>510</v>
       </c>
@@ -15690,7 +15689,7 @@
         <v>0.29704599999999998</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>511</v>
       </c>
@@ -15719,7 +15718,7 @@
         <v>0.16331699999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>512</v>
       </c>
@@ -15748,7 +15747,7 @@
         <v>0.964306</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>513</v>
       </c>
@@ -15777,7 +15776,7 @@
         <v>0.92246300000000003</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>514</v>
       </c>
@@ -15806,7 +15805,7 @@
         <v>2.4775999999999999E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>515</v>
       </c>
@@ -15835,7 +15834,7 @@
         <v>8.378E-3</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>516</v>
       </c>
@@ -15864,7 +15863,7 @@
         <v>3.5693999999999997E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>517</v>
       </c>
@@ -15893,7 +15892,7 @@
         <v>6.5950000000000002E-3</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>518</v>
       </c>
@@ -15922,7 +15921,7 @@
         <v>1.6490000000000001E-3</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>519</v>
       </c>
@@ -15951,7 +15950,7 @@
         <v>4.46E-4</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>520</v>
       </c>
@@ -15980,7 +15979,7 @@
         <v>2.4775999999999999E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>521</v>
       </c>
@@ -16009,7 +16008,7 @@
         <v>0.84434700000000007</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>522</v>
       </c>
@@ -16038,7 +16037,7 @@
         <v>7.8116000000000005E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>523</v>
       </c>
@@ -16067,7 +16066,7 @@
         <v>5.8222999999999997E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>524</v>
       </c>
@@ -16096,7 +16095,7 @@
         <v>3.3521000000000002E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>525</v>
       </c>
@@ -16125,7 +16124,7 @@
         <v>0.24457000000000001</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>526</v>
       </c>
@@ -16154,7 +16153,7 @@
         <v>0.28399000000000002</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>527</v>
       </c>
@@ -16183,7 +16182,7 @@
         <v>0.20219899999999999</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>528</v>
       </c>
@@ -16212,7 +16211,7 @@
         <v>0.13415099999999999</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>529</v>
       </c>
@@ -16241,7 +16240,7 @@
         <v>7.3411000000000004E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>530</v>
       </c>
@@ -16270,7 +16269,7 @@
         <v>2.1319000000000001E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>531</v>
       </c>
@@ -16299,7 +16298,7 @@
         <v>6.8379999999999986E-3</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>532</v>
       </c>
@@ -16328,7 +16327,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>533</v>
       </c>
@@ -16357,7 +16356,7 @@
         <v>15.714700000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>534</v>
       </c>
@@ -16386,7 +16385,7 @@
         <v>0.29813600000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>535</v>
       </c>
@@ -16415,7 +16414,7 @@
         <v>0.20012099999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>536</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>0.20360700000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>537</v>
       </c>
@@ -16473,7 +16472,7 @@
         <v>8.6751999999999996E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>538</v>
       </c>
@@ -16502,7 +16501,7 @@
         <v>3.4995999999999999E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>539</v>
       </c>
@@ -16531,7 +16530,7 @@
         <v>1.9241000000000001E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>540</v>
       </c>
@@ -16560,7 +16559,7 @@
         <v>6.1137999999999998E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>541</v>
       </c>
@@ -16589,7 +16588,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>542</v>
       </c>
@@ -16618,7 +16617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>543</v>
       </c>
@@ -16647,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>544</v>
       </c>
@@ -16676,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>545</v>
       </c>
